--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -19,9 +19,6 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">faustroll!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">shakespeare!$A$1:$B$1</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">faustroll!$A$2:$A$29</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">faustroll!$A$2:$B$10</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">faustroll!$B$2:$B$29</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="514">
   <si>
     <t>e</t>
   </si>
@@ -1560,6 +1557,21 @@
   </si>
   <si>
     <t>u'zwischen']</t>
+  </si>
+  <si>
+    <t>averag</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>ave e</t>
+  </si>
+  <si>
+    <t>ave f</t>
+  </si>
+  <si>
+    <t>ave g</t>
   </si>
 </sst>
 </file>
@@ -1911,15 +1923,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="8" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1930,7 +1945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1941,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1952,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1963,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1981,7 +1996,7 @@
         <v>1738461</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1991,8 +2006,12 @@
       <c r="C6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H6">
+        <f>(F5/100)</f>
+        <v>17384.61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2009,8 +2028,12 @@
         <f>SUMIFS(B2:B29,C2:C29,"e")</f>
         <v>1204158</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H7">
+        <f>F7/H6</f>
+        <v>69.265747117709282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2027,8 +2050,12 @@
         <f>SUMIFS(B2:B29,C2:C29,"f")</f>
         <v>497144</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H8">
+        <f>F8/H6</f>
+        <v>28.596787618474039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2045,8 +2072,12 @@
         <f>SUMIFS(B2:B29,C2:C29,"g")</f>
         <v>37159</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H9">
+        <f>F9/H6</f>
+        <v>2.1374652638166745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2057,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2067,8 +2098,15 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E11" t="s">
+        <v>510</v>
+      </c>
+      <c r="F11">
+        <f>AVERAGE(B2:B29)</f>
+        <v>62087.892857142855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2079,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2089,8 +2127,15 @@
       <c r="C13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>511</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGEIFS(B2:B29,C2:C29,"e")</f>
+        <v>92627.538461538468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2100,8 +2145,15 @@
       <c r="C14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
+        <v>512</v>
+      </c>
+      <c r="F14">
+        <f>AVERAGEIFS(B2:B29,C2:C29,"f")</f>
+        <v>49714.400000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2111,8 +2163,15 @@
       <c r="C15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E15" t="s">
+        <v>513</v>
+      </c>
+      <c r="F15">
+        <f>AVERAGEIFS(B2:B29,C2:C29,"g")</f>
+        <v>18579.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2271,7 +2330,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2329,6 +2388,13 @@
       </c>
       <c r="B6">
         <v>16200</v>
+      </c>
+      <c r="D6" t="s">
+        <v>509</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGE(B2:B39)</f>
+        <v>23248.947368421053</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
